--- a/example_data/EMA/label_corrected/capecitabine-accord-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/capecitabine-accord-epar-product-information_en.xlsx
@@ -2074,7 +2074,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>renal || populations - geriatric</t>
+          <t>populations - geriatric || renal</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>renal || hepatic || contraindication</t>
+          <t>hepatic || contraindication || renal</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
